--- a/Results Analysis/Results Analysis/Tabelle TW Comparison.xlsx
+++ b/Results Analysis/Results Analysis/Tabelle TW Comparison.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alerr\Documents\Masterarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alerr\Documents\GitHub\replication-package\Results Analysis\Results Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91D4DAEF-EE18-4CF6-94D3-4A88D1A702E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E6D356-82F5-4733-ABE2-AC038F915993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{7B989A9E-BFE8-487B-BB3C-CCC3C24BDDF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B989A9E-BFE8-487B-BB3C-CCC3C24BDDF3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Time Windows Comparison" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -162,7 +162,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$1</c:f>
+              <c:f>'Time Windows Comparison'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -206,7 +206,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$2:$A$8</c:f>
+              <c:f>'Time Windows Comparison'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -235,7 +235,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$8</c:f>
+              <c:f>'Time Windows Comparison'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -275,7 +275,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$1</c:f>
+              <c:f>'Time Windows Comparison'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -319,7 +319,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$2:$A$8</c:f>
+              <c:f>'Time Windows Comparison'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -348,7 +348,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$8</c:f>
+              <c:f>'Time Windows Comparison'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
